--- a/SCH-STH/Impact assessments/Togo/2024/tg_sch_sth_ia_202404_2_kk.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2024/tg_sch_sth_ia_202404_2_kk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4D7B0F-723F-4673-AFD7-417262439109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3721E8-11BD-4BC2-B296-F4205C992588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="146">
   <si>
     <t>type</t>
   </si>
@@ -202,9 +202,6 @@
     <t>recorders</t>
   </si>
   <si>
-    <t>HOUNYOVI Ayaovi</t>
-  </si>
-  <si>
     <t>yesNo</t>
   </si>
   <si>
@@ -229,55 +226,7 @@
     <t>k_usp</t>
   </si>
   <si>
-    <t>ABDOU-KERIM Agueregna</t>
-  </si>
-  <si>
-    <t>ADJAGODO Gadiel</t>
-  </si>
-  <si>
-    <t>AFANOU Kokou M</t>
-  </si>
-  <si>
-    <t>AGBOZO Senyo</t>
-  </si>
-  <si>
-    <t>AKUTSA Kafui</t>
-  </si>
-  <si>
-    <t>AWILI Mazama Esso</t>
-  </si>
-  <si>
-    <t>BADJASSEM Gloria Diyane</t>
-  </si>
-  <si>
-    <t>BATEBAWI Raphaël</t>
-  </si>
-  <si>
-    <t>DOUMONGUE Tibanguebé</t>
-  </si>
-  <si>
     <t>EKAHOHO Yaovi</t>
-  </si>
-  <si>
-    <t>KOKAN Faïzat</t>
-  </si>
-  <si>
-    <t>KUTOATI Abla</t>
-  </si>
-  <si>
-    <t>MONTANT Minyo Ega Sossa</t>
-  </si>
-  <si>
-    <t>SAGOA Djamsa</t>
-  </si>
-  <si>
-    <t>SOLI Lontassam</t>
-  </si>
-  <si>
-    <t>SOTOU Novinyo</t>
-  </si>
-  <si>
-    <t>TCHAGBELE Wanikougnon</t>
   </si>
   <si>
     <t>Veuillez scanner le QR Code à nouveau</t>
@@ -371,72 +320,9 @@
     <t>k_barcodeid3</t>
   </si>
   <si>
-    <t>ABAYE Kokou Mawulom</t>
-  </si>
-  <si>
-    <t>ADABRA Abra Hélène</t>
-  </si>
-  <si>
-    <t>ADJINDA Eké</t>
-  </si>
-  <si>
-    <t>AKOBI Komi</t>
-  </si>
-  <si>
-    <t>BAKOLITANA Disrama Denise</t>
-  </si>
-  <si>
-    <t>DJAMAH Yaovi Prosper</t>
-  </si>
-  <si>
-    <t>DJOBO Anissah</t>
-  </si>
-  <si>
-    <t>FONVI Akakpo</t>
-  </si>
-  <si>
-    <t>GBOGBATSE</t>
-  </si>
-  <si>
-    <t>GNANLABA Pyabalo</t>
-  </si>
-  <si>
-    <t>LACK Fiali,</t>
-  </si>
-  <si>
-    <t>LOGO Kokou Dodji</t>
-  </si>
-  <si>
-    <t>N’DATO Kossi</t>
-  </si>
-  <si>
-    <t>NAKOME Bamouni</t>
-  </si>
-  <si>
-    <t>NOUSSOUGNON Kokou S.</t>
-  </si>
-  <si>
-    <t>PORO Kpatcha Edjaréguéw</t>
-  </si>
-  <si>
-    <t>SEDJRO Afantolou</t>
-  </si>
-  <si>
-    <t>SINGO Kodjo ATTAH</t>
-  </si>
-  <si>
-    <t>SOH Aféyibou</t>
-  </si>
-  <si>
-    <t>TAGBA Atna-Edi M.</t>
-  </si>
-  <si>
     <t>YAKPA Kossi</t>
   </si>
   <si>
-    <t>(2024 Avr) - 2. SCH/STH - Kato Katz</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
@@ -473,22 +359,145 @@
     <t>end repeat</t>
   </si>
   <si>
-    <t>tg_sch_sth_ia_202404_2_kk</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_k_2404</t>
-  </si>
-  <si>
-    <t>regex(., '^[0-9]{2}$')</t>
-  </si>
-  <si>
-    <t>Must be two digits between 9 and 100</t>
-  </si>
-  <si>
-    <t>Code enregistreur</t>
-  </si>
-  <si>
-    <t>Code à deux chiffre qui vous a été affecté</t>
+    <t>select_one recorders</t>
+  </si>
+  <si>
+    <t>Code Enregistreur</t>
+  </si>
+  <si>
+    <t>Code à 2 chiffrre qui vous a été affecté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABALO Kpalogou </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABOU KERIM S. A. </t>
+  </si>
+  <si>
+    <t>ADJENDA Eke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBOYI Josias </t>
+  </si>
+  <si>
+    <t>AGORO Fawouziatou</t>
+  </si>
+  <si>
+    <t>ALEDI Valentin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMADOU Moussa </t>
+  </si>
+  <si>
+    <t>AMADJI Koffi Geraud</t>
+  </si>
+  <si>
+    <t>ASSIH Pèkèwè</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSONDE Ditorgue </t>
+  </si>
+  <si>
+    <t>AWADI Pouwedéou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEHENIBA Kpèè Togamba </t>
+  </si>
+  <si>
+    <t>BOMBONNE ouwouborbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONSA Baminte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOGBEAZE Folly </t>
+  </si>
+  <si>
+    <t>DEFOLO Amouzou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJAMAH Prosper </t>
+  </si>
+  <si>
+    <t>DOMPE Kodjovi</t>
+  </si>
+  <si>
+    <t>ESSILIVI Yao Eyram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNANLABA Pyabalo Ernest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOUNYOVI Ayaovi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KWAKU Kossi Edem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KANTCHIRE Yendoube </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOUDAYA Kodjo Eli </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOUSSAGO WAYBENA </t>
+  </si>
+  <si>
+    <t>KOUGNASSOUKOU-TCHARA Ahouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUTOATI Grâce </t>
+  </si>
+  <si>
+    <t>LACK Fiali</t>
+  </si>
+  <si>
+    <t>LARE  Soumbako</t>
+  </si>
+  <si>
+    <t>N DORE Essomandan</t>
+  </si>
+  <si>
+    <t>N’DORE Essomandan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N'DATO Kossi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIBOMBE OUYI Gbati </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NYADEKA Kossi Mawuli </t>
+  </si>
+  <si>
+    <t>PADARO Hèzouwè Chérita</t>
+  </si>
+  <si>
+    <t>SADJI Leontine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMA Essodong </t>
+  </si>
+  <si>
+    <t>SASSOUVI EYRAM</t>
+  </si>
+  <si>
+    <t>TCHABANG-NA Abdul Manaf</t>
+  </si>
+  <si>
+    <t>ZIAGNON  Germain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N DATO Kossi </t>
+  </si>
+  <si>
+    <t>tg_sch_sth_ia_202404_2_kk_v2</t>
+  </si>
+  <si>
+    <t>(2024 Avr) - 2. SCH/STH - Kato Katz V2</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_k_2404_v2</t>
   </si>
 </sst>
 </file>
@@ -678,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -723,9 +732,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -799,6 +805,15 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1109,17 +1124,17 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="47.5" style="40" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="47.5" style="39" customWidth="1"/>
     <col min="4" max="4" width="47.375" style="19" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="40" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="39" customWidth="1"/>
     <col min="7" max="7" width="29.5" style="19" customWidth="1"/>
     <col min="8" max="8" width="22" style="19" customWidth="1"/>
     <col min="9" max="9" width="12.625" style="19" customWidth="1"/>
@@ -1167,733 +1182,729 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="18" customFormat="1" ht="31.5">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:12" s="18" customFormat="1">
+      <c r="A2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+    </row>
+    <row r="3" spans="1:12" s="18" customFormat="1">
+      <c r="A3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="20"/>
+      <c r="L3" s="29"/>
+    </row>
+    <row r="4" spans="1:12" s="28" customFormat="1">
+      <c r="A4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="22"/>
+      <c r="L4" s="30"/>
+    </row>
+    <row r="5" spans="1:12" s="28" customFormat="1">
+      <c r="A5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="22"/>
+      <c r="L5" s="30"/>
+    </row>
+    <row r="6" spans="1:12" s="28" customFormat="1" ht="47.25">
+      <c r="A6" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:12" s="18" customFormat="1">
+      <c r="A7" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+    </row>
+    <row r="8" spans="1:12" s="18" customFormat="1">
+      <c r="A8" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="29"/>
+    </row>
+    <row r="9" spans="1:12" s="18" customFormat="1" ht="63">
+      <c r="A9" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="29"/>
+    </row>
+    <row r="10" spans="1:12" s="32" customFormat="1" ht="31.5">
+      <c r="A10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="1:12" s="32" customFormat="1" ht="31.5">
+      <c r="A11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="1:12" s="18" customFormat="1">
+      <c r="A12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25" t="s">
+      <c r="B12" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-    </row>
-    <row r="3" spans="1:12" s="18" customFormat="1">
-      <c r="A3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21" t="s">
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+    </row>
+    <row r="13" spans="1:12" s="18" customFormat="1">
+      <c r="A13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="30"/>
-    </row>
-    <row r="4" spans="1:12" s="29" customFormat="1">
-      <c r="A4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23" t="s">
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+    </row>
+    <row r="14" spans="1:12" s="18" customFormat="1">
+      <c r="A14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="31"/>
-    </row>
-    <row r="5" spans="1:12" s="29" customFormat="1">
-      <c r="A5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23" t="s">
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+    </row>
+    <row r="15" spans="1:12" s="18" customFormat="1">
+      <c r="A15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="31"/>
-    </row>
-    <row r="6" spans="1:12" s="29" customFormat="1" ht="47.25">
-      <c r="A6" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="31"/>
-    </row>
-    <row r="7" spans="1:12" s="18" customFormat="1">
-      <c r="A7" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-    </row>
-    <row r="8" spans="1:12" s="18" customFormat="1">
-      <c r="A8" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="30"/>
-    </row>
-    <row r="9" spans="1:12" s="18" customFormat="1" ht="63">
-      <c r="A9" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="30"/>
-    </row>
-    <row r="10" spans="1:12" s="33" customFormat="1" ht="31.5">
-      <c r="A10" s="21" t="s">
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+    </row>
+    <row r="16" spans="1:12" s="18" customFormat="1">
+      <c r="A16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+    </row>
+    <row r="17" spans="1:12" s="18" customFormat="1">
+      <c r="A17" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+    </row>
+    <row r="18" spans="1:12" s="18" customFormat="1">
+      <c r="A18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+    </row>
+    <row r="19" spans="1:12" s="18" customFormat="1">
+      <c r="A19" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+    </row>
+    <row r="20" spans="1:12" s="18" customFormat="1">
+      <c r="A20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+    </row>
+    <row r="21" spans="1:12" s="18" customFormat="1">
+      <c r="A21" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+    </row>
+    <row r="22" spans="1:12" s="18" customFormat="1">
+      <c r="A22" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+    </row>
+    <row r="23" spans="1:12" s="32" customFormat="1" ht="31.5">
+      <c r="A23" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="1:12" s="18" customFormat="1">
+      <c r="A24" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="33"/>
+      <c r="J24" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+    </row>
+    <row r="25" spans="1:12" s="18" customFormat="1">
+      <c r="A25" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="33"/>
+      <c r="J25" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+    </row>
+    <row r="26" spans="1:12" s="18" customFormat="1">
+      <c r="A26" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="33"/>
+      <c r="J26" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+    </row>
+    <row r="27" spans="1:12" s="18" customFormat="1">
+      <c r="A27" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="33"/>
+      <c r="J27" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="18" customFormat="1">
+      <c r="A28" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="33"/>
+      <c r="J28" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="18" customFormat="1">
+      <c r="A29" s="24"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="1:12" s="18" customFormat="1">
+      <c r="A30" s="24"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="1:12" s="18" customFormat="1">
+      <c r="A31" s="24"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-    </row>
-    <row r="11" spans="1:12" s="33" customFormat="1" ht="31.5">
-      <c r="A11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-    </row>
-    <row r="12" spans="1:12" s="18" customFormat="1">
-      <c r="A12" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-    </row>
-    <row r="13" spans="1:12" s="18" customFormat="1">
-      <c r="A13" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="1:12" s="18" customFormat="1">
-      <c r="A14" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-    </row>
-    <row r="15" spans="1:12" s="18" customFormat="1">
-      <c r="A15" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-    </row>
-    <row r="16" spans="1:12" s="18" customFormat="1">
-      <c r="A16" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-    </row>
-    <row r="17" spans="1:12" s="18" customFormat="1">
-      <c r="A17" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-    </row>
-    <row r="18" spans="1:12" s="18" customFormat="1">
-      <c r="A18" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-    </row>
-    <row r="19" spans="1:12" s="18" customFormat="1">
-      <c r="A19" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-    </row>
-    <row r="20" spans="1:12" s="18" customFormat="1">
-      <c r="A20" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-    </row>
-    <row r="21" spans="1:12" s="18" customFormat="1">
-      <c r="A21" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-    </row>
-    <row r="22" spans="1:12" s="18" customFormat="1">
-      <c r="A22" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-    </row>
-    <row r="23" spans="1:12" s="33" customFormat="1" ht="31.5">
-      <c r="A23" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-    </row>
-    <row r="24" spans="1:12" s="18" customFormat="1">
-      <c r="A24" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-    </row>
-    <row r="25" spans="1:12" s="18" customFormat="1">
-      <c r="A25" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-    </row>
-    <row r="26" spans="1:12" s="18" customFormat="1">
-      <c r="A26" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-    </row>
-    <row r="27" spans="1:12" s="18" customFormat="1">
-      <c r="A27" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="18" customFormat="1">
-      <c r="A28" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="37" t="s">
+      <c r="B32" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="18" customFormat="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-    </row>
-    <row r="30" spans="1:12" s="18" customFormat="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-    </row>
-    <row r="31" spans="1:12" s="18" customFormat="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1906,8 +1917,8 @@
   <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44:XFD57"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1941,62 +1952,60 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="C2" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4"/>
-      <c r="C4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1">
+      <c r="C4" s="23"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1">
-      <c r="A6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="D6" s="15"/>
-      <c r="E6" s="13"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="7" t="s">
         <v>53</v>
       </c>
@@ -2007,567 +2016,542 @@
         <v>104</v>
       </c>
       <c r="D7" s="15"/>
-      <c r="E7" s="13"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D8" s="15"/>
-      <c r="E8" s="13"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="13"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="D10" s="15"/>
-      <c r="E10" s="13"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="D11" s="15"/>
-      <c r="E11" s="13"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="13"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="D13" s="15"/>
-      <c r="E13" s="13"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="D14" s="15"/>
-      <c r="E14" s="13"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="D15" s="15"/>
-      <c r="E15" s="13"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D16" s="15"/>
-      <c r="E16" s="13"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="D17" s="15"/>
-      <c r="E17" s="13"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D18" s="15"/>
-      <c r="E18" s="13"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D19" s="15"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="D20" s="15"/>
-      <c r="E20" s="13"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="D21" s="15"/>
-      <c r="E21" s="13"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D22" s="15"/>
-      <c r="E22" s="13"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D23" s="15"/>
-      <c r="E23" s="13"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D24" s="15"/>
-      <c r="E24" s="13"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="D25" s="15"/>
-      <c r="E25" s="13"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="D26" s="15"/>
-      <c r="E26" s="13"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="D27" s="15"/>
-      <c r="E27" s="13"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="20"/>
+      <c r="B28" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="15"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="20"/>
+      <c r="B29" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="15"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="20"/>
+      <c r="B30" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="15"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="20"/>
+      <c r="B31" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="15"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="20"/>
+      <c r="B32" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="15"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="20"/>
+      <c r="B33" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="15"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="20"/>
+      <c r="B34" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="15"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="20"/>
+      <c r="B35" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="15"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="20"/>
+      <c r="B36" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="15"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="20"/>
+      <c r="B37" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="15"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D38" s="20"/>
+      <c r="B38" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="15"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="20"/>
+      <c r="B39" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="15"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="20"/>
+      <c r="B40" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="15"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-    </row>
-    <row r="41" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="20"/>
+      <c r="B41" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="15"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-    </row>
-    <row r="42" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="20"/>
+      <c r="B42" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="15"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-    </row>
-    <row r="43" spans="1:7" s="3" customFormat="1">
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" s="20"/>
+      <c r="B43" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="15"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="3"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:7">
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="3"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -2575,7 +2559,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:6">
       <c r="A47" s="3"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -2583,7 +2567,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:6">
       <c r="A48" s="3"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -3674,7 +3658,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3685,27 +3669,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="18" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>

--- a/SCH-STH/Impact assessments/Togo/2024/tg_sch_sth_ia_202404_2_kk.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2024/tg_sch_sth_ia_202404_2_kk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3721E8-11BD-4BC2-B296-F4205C992588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B5E8AB-AC75-411A-A69C-F66B19705F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="150">
   <si>
     <t>type</t>
   </si>
@@ -491,20 +491,32 @@
     <t xml:space="preserve">N DATO Kossi </t>
   </si>
   <si>
-    <t>tg_sch_sth_ia_202404_2_kk_v2</t>
-  </si>
-  <si>
-    <t>(2024 Avr) - 2. SCH/STH - Kato Katz V2</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_k_2404_v2</t>
+    <t>tg_sch_sth_ia_202404_2_kk_v3</t>
+  </si>
+  <si>
+    <t>(2024 Avr) - 2. SCH/STH - Kato Katz V3</t>
+  </si>
+  <si>
+    <t>repeat_count</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_k_2404_v3</t>
+  </si>
+  <si>
+    <t>k_nb_children</t>
+  </si>
+  <si>
+    <t>Combien de résultat allez vous enregistrer?</t>
+  </si>
+  <si>
+    <t>${k_nb_children}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -585,6 +597,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -630,7 +657,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -683,11 +710,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -813,6 +860,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1118,13 +1177,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1144,7 +1203,7 @@
     <col min="13" max="16384" width="11" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1" ht="18.75">
+    <row r="1" spans="1:13" s="18" customFormat="1" ht="18.75">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1181,8 +1240,11 @@
       <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="18" customFormat="1">
+      <c r="M1" s="51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="18" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>99</v>
       </c>
@@ -1206,7 +1268,7 @@
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
     </row>
-    <row r="3" spans="1:12" s="18" customFormat="1">
+    <row r="3" spans="1:13" s="18" customFormat="1">
       <c r="A3" s="20" t="s">
         <v>14</v>
       </c>
@@ -1228,7 +1290,7 @@
       <c r="K3" s="20"/>
       <c r="L3" s="29"/>
     </row>
-    <row r="4" spans="1:12" s="28" customFormat="1">
+    <row r="4" spans="1:13" s="28" customFormat="1">
       <c r="A4" s="22" t="s">
         <v>14</v>
       </c>
@@ -1250,7 +1312,7 @@
       <c r="K4" s="22"/>
       <c r="L4" s="30"/>
     </row>
-    <row r="5" spans="1:12" s="28" customFormat="1">
+    <row r="5" spans="1:13" s="28" customFormat="1">
       <c r="A5" s="22" t="s">
         <v>14</v>
       </c>
@@ -1272,72 +1334,69 @@
       <c r="K5" s="22"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" s="28" customFormat="1" ht="47.25">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:13" customFormat="1">
+      <c r="A6" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="28" customFormat="1" ht="47.25">
+      <c r="A7" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B7" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="30"/>
-    </row>
-    <row r="7" spans="1:12" s="18" customFormat="1">
-      <c r="A7" s="41" t="s">
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="1:13" s="18" customFormat="1">
+      <c r="A8" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="42" t="s">
+      <c r="B8" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-    </row>
-    <row r="8" spans="1:12" s="18" customFormat="1">
-      <c r="A8" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="29"/>
-    </row>
-    <row r="9" spans="1:12" s="18" customFormat="1" ht="63">
+      <c r="D8" s="42"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="18" customFormat="1">
       <c r="A9" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -1346,93 +1405,91 @@
       <c r="G9" s="21"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
       <c r="L9" s="29"/>
     </row>
-    <row r="10" spans="1:12" s="32" customFormat="1" ht="31.5">
+    <row r="10" spans="1:13" s="18" customFormat="1" ht="63">
       <c r="A10" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="29"/>
+    </row>
+    <row r="11" spans="1:13" s="32" customFormat="1" ht="31.5">
+      <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C11" s="21" t="s">
         <v>66</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-    </row>
-    <row r="11" spans="1:12" s="32" customFormat="1" ht="31.5">
-      <c r="A11" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>63</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="20"/>
       <c r="F11" s="22" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
-      <c r="J11" s="22" t="s">
-        <v>13</v>
-      </c>
+      <c r="J11" s="22"/>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
     </row>
-    <row r="12" spans="1:12" s="18" customFormat="1">
-      <c r="A12" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="24" t="s">
+    <row r="12" spans="1:13" s="32" customFormat="1" ht="31.5">
+      <c r="A12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-    </row>
-    <row r="13" spans="1:12" s="18" customFormat="1">
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:13" s="18" customFormat="1">
       <c r="A13" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="33"/>
@@ -1446,15 +1503,15 @@
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
     </row>
-    <row r="14" spans="1:12" s="18" customFormat="1">
+    <row r="14" spans="1:13" s="18" customFormat="1">
       <c r="A14" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="33"/>
@@ -1468,15 +1525,15 @@
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
     </row>
-    <row r="15" spans="1:12" s="18" customFormat="1">
+    <row r="15" spans="1:13" s="18" customFormat="1">
       <c r="A15" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="33"/>
@@ -1490,15 +1547,15 @@
       <c r="K15" s="33"/>
       <c r="L15" s="33"/>
     </row>
-    <row r="16" spans="1:12" s="18" customFormat="1">
+    <row r="16" spans="1:13" s="18" customFormat="1">
       <c r="A16" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="33"/>
@@ -1517,10 +1574,10 @@
         <v>22</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="33"/>
@@ -1538,13 +1595,13 @@
       <c r="A18" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="37"/>
+      <c r="B18" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="26"/>
       <c r="E18" s="33"/>
       <c r="F18" s="24"/>
       <c r="G18" s="34"/>
@@ -1561,10 +1618,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="33"/>
@@ -1583,10 +1640,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="37"/>
       <c r="E20" s="33"/>
@@ -1605,10 +1662,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="33"/>
@@ -1624,13 +1681,13 @@
     </row>
     <row r="22" spans="1:12" s="18" customFormat="1">
       <c r="A22" s="24" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D22" s="37"/>
       <c r="E22" s="33"/>
@@ -1644,67 +1701,65 @@
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
     </row>
-    <row r="23" spans="1:12" s="32" customFormat="1" ht="31.5">
-      <c r="A23" s="20" t="s">
+    <row r="23" spans="1:12" s="18" customFormat="1">
+      <c r="A23" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+    </row>
+    <row r="24" spans="1:12" s="32" customFormat="1" ht="31.5">
+      <c r="A24" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B24" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C24" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="22" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G24" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-    </row>
-    <row r="24" spans="1:12" s="18" customFormat="1">
-      <c r="A24" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="34"/>
       <c r="H24" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="24" t="s">
+      <c r="I24" s="22"/>
+      <c r="J24" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
     </row>
     <row r="25" spans="1:12" s="18" customFormat="1">
       <c r="A25" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="33"/>
@@ -1725,10 +1780,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="33"/>
@@ -1748,13 +1803,13 @@
       <c r="A27" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="37"/>
+      <c r="B27" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="26"/>
       <c r="E27" s="33"/>
       <c r="F27" s="24"/>
       <c r="G27" s="34"/>
@@ -1766,19 +1821,17 @@
         <v>13</v>
       </c>
       <c r="K27" s="33"/>
-      <c r="L27" s="33" t="s">
-        <v>82</v>
-      </c>
+      <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:12" s="18" customFormat="1">
       <c r="A28" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D28" s="37"/>
       <c r="E28" s="33"/>
@@ -1791,20 +1844,32 @@
       <c r="J28" s="24" t="s">
         <v>13</v>
       </c>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="29" spans="1:12" s="18" customFormat="1">
-      <c r="A29" s="24"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>81</v>
+      </c>
       <c r="D29" s="37"/>
       <c r="E29" s="33"/>
       <c r="F29" s="24"/>
       <c r="G29" s="34"/>
-      <c r="H29" s="33"/>
+      <c r="H29" s="33" t="s">
+        <v>83</v>
+      </c>
       <c r="I29" s="33"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
+      <c r="J29" s="24" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="30" spans="1:12" s="18" customFormat="1">
       <c r="A30" s="24"/>
@@ -1834,66 +1899,62 @@
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="24" t="s">
+    <row r="32" spans="1:12" s="18" customFormat="1">
+      <c r="A32" s="24"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B33" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C33" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="43" t="s">
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="24" t="s">
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B35" s="35" t="s">
         <v>46</v>
-      </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>48</v>
       </c>
       <c r="C35" s="36"/>
       <c r="D35" s="37"/>
@@ -1905,6 +1966,24 @@
       <c r="J35" s="24"/>
       <c r="K35" s="38"/>
       <c r="L35" s="38"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SCH-STH/Impact assessments/Togo/2024/tg_sch_sth_ia_202404_2_kk.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2024/tg_sch_sth_ia_202404_2_kk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B5E8AB-AC75-411A-A69C-F66B19705F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E43A629-DFA0-4712-94D1-E991D4736194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1183,7 +1183,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="11" spans="1:13" s="32" customFormat="1" ht="31.5">
       <c r="A11" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>20</v>

--- a/SCH-STH/Impact assessments/Togo/2024/tg_sch_sth_ia_202404_2_kk.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2024/tg_sch_sth_ia_202404_2_kk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E43A629-DFA0-4712-94D1-E991D4736194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C437E0-71B9-42D8-9955-84E64B557FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -350,12 +350,6 @@
     <t>if (${C2} = 1,'',substring-after(${C1},${k_barcodeid}))</t>
   </si>
   <si>
-    <t>not(selected(${C3}, ${k_barcodeid}))</t>
-  </si>
-  <si>
-    <t>Ce QR Code est déjà utilisé</t>
-  </si>
-  <si>
     <t>end repeat</t>
   </si>
   <si>
@@ -491,18 +485,9 @@
     <t xml:space="preserve">N DATO Kossi </t>
   </si>
   <si>
-    <t>tg_sch_sth_ia_202404_2_kk_v3</t>
-  </si>
-  <si>
-    <t>(2024 Avr) - 2. SCH/STH - Kato Katz V3</t>
-  </si>
-  <si>
     <t>repeat_count</t>
   </si>
   <si>
-    <t>tg_sch_sth_k_2404_v3</t>
-  </si>
-  <si>
     <t>k_nb_children</t>
   </si>
   <si>
@@ -510,6 +495,23 @@
   </si>
   <si>
     <t>${k_nb_children}</t>
+  </si>
+  <si>
+    <t>not(selected(${C3}, ${k_barcodeid})) and 
+regex(.,'^(BLI|AGO|ASS|BIN|DAN|DOU|KER|KOZ|AVE|BAS|LAC|VOG|YOT|ZIO)_\d{4}$') and 
+(substr(${k_district} , 0, 3) = substr(., 0, 3) or substr(${k_district} , 0, 3) = 'VO')</t>
+  </si>
+  <si>
+    <t>Ce QR Code n'appartient pas à ce district ou vous l'avez déjà utiliser</t>
+  </si>
+  <si>
+    <t>(2024 Avr) - 2. SCH/STH - Kato Katz V3.1</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_ia_202404_2_kk_v3_1</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_k_2404_v3_1</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1185,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1193,7 +1195,7 @@
     <col min="3" max="3" width="47.5" style="39" customWidth="1"/>
     <col min="4" max="4" width="47.375" style="19" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="39" customWidth="1"/>
+    <col min="6" max="6" width="31.875" style="39" customWidth="1"/>
     <col min="7" max="7" width="29.5" style="19" customWidth="1"/>
     <col min="8" max="8" width="22" style="19" customWidth="1"/>
     <col min="9" max="9" width="12.625" style="19" customWidth="1"/>
@@ -1241,21 +1243,21 @@
         <v>11</v>
       </c>
       <c r="M1" s="51" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="18" customFormat="1">
       <c r="A2" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E2" s="50"/>
       <c r="F2" s="8"/>
@@ -1339,10 +1341,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J6" s="54" t="s">
         <v>13</v>
@@ -1368,12 +1370,12 @@
       <c r="K7" s="22"/>
       <c r="L7" s="30"/>
     </row>
-    <row r="8" spans="1:13" s="18" customFormat="1">
+    <row r="8" spans="1:13" s="18" customFormat="1" ht="31.5">
       <c r="A8" s="41" t="s">
         <v>89</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>90</v>
@@ -1388,7 +1390,7 @@
       <c r="K8" s="41"/>
       <c r="L8" s="41"/>
       <c r="M8" s="18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="18" customFormat="1">
@@ -1431,7 +1433,7 @@
       <c r="K10" s="20"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:13" s="32" customFormat="1" ht="31.5">
+    <row r="11" spans="1:13" s="32" customFormat="1" ht="126">
       <c r="A11" s="20" t="s">
         <v>19</v>
       </c>
@@ -1444,10 +1446,10 @@
       <c r="D11" s="21"/>
       <c r="E11" s="20"/>
       <c r="F11" s="22" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
@@ -1935,7 +1937,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B34" s="43"/>
       <c r="C34" s="44"/>
@@ -2061,10 +2063,10 @@
         <v>53</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="14"/>
@@ -2075,10 +2077,10 @@
         <v>53</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="14"/>
@@ -2089,10 +2091,10 @@
         <v>53</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="14"/>
@@ -2103,10 +2105,10 @@
         <v>53</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="14"/>
@@ -2117,10 +2119,10 @@
         <v>53</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="14"/>
@@ -2131,10 +2133,10 @@
         <v>53</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="14"/>
@@ -2145,10 +2147,10 @@
         <v>53</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="14"/>
@@ -2159,10 +2161,10 @@
         <v>53</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="14"/>
@@ -2173,10 +2175,10 @@
         <v>53</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="14"/>
@@ -2187,10 +2189,10 @@
         <v>53</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="14"/>
@@ -2201,10 +2203,10 @@
         <v>53</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="14"/>
@@ -2215,10 +2217,10 @@
         <v>53</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="14"/>
@@ -2229,10 +2231,10 @@
         <v>53</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="14"/>
@@ -2243,10 +2245,10 @@
         <v>53</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="14"/>
@@ -2257,10 +2259,10 @@
         <v>53</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="14"/>
@@ -2271,10 +2273,10 @@
         <v>53</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="14"/>
@@ -2285,10 +2287,10 @@
         <v>53</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="14"/>
@@ -2299,10 +2301,10 @@
         <v>53</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="14"/>
@@ -2327,10 +2329,10 @@
         <v>53</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="14"/>
@@ -2341,10 +2343,10 @@
         <v>53</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="14"/>
@@ -2355,10 +2357,10 @@
         <v>53</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="14"/>
@@ -2369,10 +2371,10 @@
         <v>53</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="14"/>
@@ -2383,10 +2385,10 @@
         <v>53</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="14"/>
@@ -2397,10 +2399,10 @@
         <v>53</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="14"/>
@@ -2411,10 +2413,10 @@
         <v>53</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="14"/>
@@ -2425,10 +2427,10 @@
         <v>53</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="14"/>
@@ -2439,10 +2441,10 @@
         <v>53</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="14"/>
@@ -2453,10 +2455,10 @@
         <v>53</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="14"/>
@@ -2467,10 +2469,10 @@
         <v>53</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="14"/>
@@ -2481,10 +2483,10 @@
         <v>53</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="14"/>
@@ -2495,10 +2497,10 @@
         <v>53</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="14"/>
@@ -2509,10 +2511,10 @@
         <v>53</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="14"/>
@@ -2523,10 +2525,10 @@
         <v>53</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="14"/>
@@ -2537,10 +2539,10 @@
         <v>53</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="14"/>
@@ -2551,10 +2553,10 @@
         <v>53</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="14"/>
@@ -2565,10 +2567,10 @@
         <v>53</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="14"/>
@@ -2579,10 +2581,10 @@
         <v>53</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="14"/>
@@ -2593,10 +2595,10 @@
         <v>53</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="14"/>
@@ -2621,10 +2623,10 @@
         <v>53</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="14"/>
@@ -3737,7 +3739,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3762,10 +3764,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
